--- a/config_ios/fish_3d_server.xlsx
+++ b/config_ios/fish_3d_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1456,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -1473,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -1490,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>

--- a/config_ios/fish_3d_server.xlsx
+++ b/config_ios/fish_3d_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
